--- a/datasets/figure.xlsx
+++ b/datasets/figure.xlsx
@@ -3,13 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{756D8CA2-327C-4609-9332-7FFFBDF720E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47B592E4-E322-4ACE-88A4-44B97E4E9F47}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hourglass" sheetId="1" r:id="rId1"/>
     <sheet name="apple_before" sheetId="2" r:id="rId2"/>
+    <sheet name="apple_after" sheetId="3" r:id="rId3"/>
+    <sheet name="pear_before" sheetId="4" r:id="rId4"/>
+    <sheet name="pear_after" sheetId="5" r:id="rId5"/>
+    <sheet name="paper_before" sheetId="6" r:id="rId6"/>
+    <sheet name="paper_after" sheetId="7" r:id="rId7"/>
+    <sheet name="before" sheetId="9" r:id="rId8"/>
+    <sheet name="after" sheetId="10" r:id="rId9"/>
+    <sheet name="complete" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="13">
   <si>
     <t>肩围</t>
   </si>
@@ -46,12 +54,27 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>hourglass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +108,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,11 +185,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -181,6 +258,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,7 +582,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,12 +763,1190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9F04A-CC9F-4887-8032-B821E64B479E}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6">
+        <v>82</v>
+      </c>
+      <c r="E2" s="6">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6">
+        <v>83</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6">
+        <v>79</v>
+      </c>
+      <c r="G3" s="6">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6">
+        <v>87</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6">
+        <v>79</v>
+      </c>
+      <c r="H4" s="6">
+        <v>85</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>165</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6">
+        <v>81</v>
+      </c>
+      <c r="F5" s="6">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6">
+        <v>84</v>
+      </c>
+      <c r="H5" s="6">
+        <v>89</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>173</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6">
+        <v>85</v>
+      </c>
+      <c r="G6" s="6">
+        <v>89</v>
+      </c>
+      <c r="H6" s="6">
+        <v>94</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>179</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>89</v>
+      </c>
+      <c r="F7" s="6">
+        <v>88</v>
+      </c>
+      <c r="G7" s="6">
+        <v>92</v>
+      </c>
+      <c r="H7" s="6">
+        <v>97</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6">
+        <v>80</v>
+      </c>
+      <c r="F8" s="6">
+        <v>80</v>
+      </c>
+      <c r="G8" s="6">
+        <v>79</v>
+      </c>
+      <c r="H8" s="6">
+        <v>83</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>160</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6">
+        <v>82</v>
+      </c>
+      <c r="F9" s="6">
+        <v>88</v>
+      </c>
+      <c r="G9" s="6">
+        <v>84</v>
+      </c>
+      <c r="H9" s="6">
+        <v>87</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6">
+        <v>84</v>
+      </c>
+      <c r="E10" s="6">
+        <v>78</v>
+      </c>
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>79</v>
+      </c>
+      <c r="H10" s="6">
+        <v>85</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6">
+        <v>82</v>
+      </c>
+      <c r="F11" s="6">
+        <v>80</v>
+      </c>
+      <c r="G11" s="6">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6">
+        <v>89</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6">
+        <v>88</v>
+      </c>
+      <c r="F12" s="6">
+        <v>88</v>
+      </c>
+      <c r="G12" s="6">
+        <v>89</v>
+      </c>
+      <c r="H12" s="6">
+        <v>94</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6">
+        <v>89</v>
+      </c>
+      <c r="F13" s="6">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6">
+        <v>92</v>
+      </c>
+      <c r="H13" s="6">
+        <v>97</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>175</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10">
+        <v>91</v>
+      </c>
+      <c r="F14" s="10">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>95</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>158</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>161</v>
+      </c>
+      <c r="E15" s="4">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4">
+        <v>87</v>
+      </c>
+      <c r="H15" s="4">
+        <v>86</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4">
+        <v>84</v>
+      </c>
+      <c r="F16" s="4">
+        <v>86</v>
+      </c>
+      <c r="G16" s="4">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4">
+        <v>90</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>168</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4">
+        <v>85</v>
+      </c>
+      <c r="F17" s="4">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4">
+        <v>91</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>163</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4">
+        <v>88</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>170</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>93</v>
+      </c>
+      <c r="E19" s="4">
+        <v>88</v>
+      </c>
+      <c r="F19" s="4">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4">
+        <v>98</v>
+      </c>
+      <c r="H19" s="4">
+        <v>92</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4">
+        <v>92</v>
+      </c>
+      <c r="G20" s="4">
+        <v>103</v>
+      </c>
+      <c r="H20" s="4">
+        <v>96</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>159</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>160</v>
+      </c>
+      <c r="E21" s="4">
+        <v>77</v>
+      </c>
+      <c r="F21" s="4">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4">
+        <v>86</v>
+      </c>
+      <c r="H21" s="4">
+        <v>88</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>166</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4">
+        <v>86</v>
+      </c>
+      <c r="G22" s="4">
+        <v>94</v>
+      </c>
+      <c r="H22" s="4">
+        <v>90</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>167</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>91</v>
+      </c>
+      <c r="E23" s="4">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4">
+        <v>87</v>
+      </c>
+      <c r="G23" s="4">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4">
+        <v>91</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4">
+        <v>92</v>
+      </c>
+      <c r="H24" s="4">
+        <v>88</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>171</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>95</v>
+      </c>
+      <c r="E25" s="4">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4">
+        <v>90</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>178</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>85</v>
+      </c>
+      <c r="E26" s="10">
+        <v>78</v>
+      </c>
+      <c r="F26" s="10">
+        <v>77</v>
+      </c>
+      <c r="G26" s="10">
+        <v>73</v>
+      </c>
+      <c r="H26" s="10">
+        <v>96</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4">
+        <v>66</v>
+      </c>
+      <c r="F27" s="4">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4">
+        <v>64</v>
+      </c>
+      <c r="H27" s="4">
+        <v>82</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>84</v>
+      </c>
+      <c r="E28" s="4">
+        <v>77</v>
+      </c>
+      <c r="F28" s="4">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4">
+        <v>72</v>
+      </c>
+      <c r="H28" s="4">
+        <v>96</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>164</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4">
+        <v>67</v>
+      </c>
+      <c r="H29" s="4">
+        <v>89</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4">
+        <v>68</v>
+      </c>
+      <c r="F30" s="4">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4">
+        <v>66</v>
+      </c>
+      <c r="H30" s="4">
+        <v>84</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>85</v>
+      </c>
+      <c r="E31" s="4">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4">
+        <v>78</v>
+      </c>
+      <c r="G31" s="4">
+        <v>73</v>
+      </c>
+      <c r="H31" s="4">
+        <v>99</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>179</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4">
+        <v>79</v>
+      </c>
+      <c r="F32" s="4">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4">
+        <v>73</v>
+      </c>
+      <c r="H32" s="4">
+        <v>95</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>152</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>72</v>
+      </c>
+      <c r="E33" s="4">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4">
+        <v>64</v>
+      </c>
+      <c r="H33" s="4">
+        <v>70</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>176</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>83</v>
+      </c>
+      <c r="E34" s="4">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4">
+        <v>76</v>
+      </c>
+      <c r="G34" s="4">
+        <v>72</v>
+      </c>
+      <c r="H34" s="4">
+        <v>75</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>166</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>76</v>
+      </c>
+      <c r="E35" s="4">
+        <v>73</v>
+      </c>
+      <c r="F35" s="4">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4">
+        <v>67</v>
+      </c>
+      <c r="H35" s="4">
+        <v>75</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4">
+        <v>68</v>
+      </c>
+      <c r="F36" s="4">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4">
+        <v>66</v>
+      </c>
+      <c r="H36" s="4">
+        <v>84</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>181</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>83</v>
+      </c>
+      <c r="E37" s="4">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4">
+        <v>78</v>
+      </c>
+      <c r="G37" s="4">
+        <v>73</v>
+      </c>
+      <c r="H37" s="4">
+        <v>88</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>163</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>83</v>
+      </c>
+      <c r="E38" s="4">
+        <v>70</v>
+      </c>
+      <c r="F38" s="4">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4">
+        <v>74</v>
+      </c>
+      <c r="H38" s="4">
+        <v>88</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>158</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4">
+        <v>68</v>
+      </c>
+      <c r="F39" s="4">
+        <v>68</v>
+      </c>
+      <c r="G39" s="4">
+        <v>72</v>
+      </c>
+      <c r="H39" s="4">
+        <v>86</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>165</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>85</v>
+      </c>
+      <c r="E40" s="4">
+        <v>71</v>
+      </c>
+      <c r="F40" s="4">
+        <v>70</v>
+      </c>
+      <c r="G40" s="4">
+        <v>75</v>
+      </c>
+      <c r="H40" s="4">
+        <v>89</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>170</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
+        <v>88</v>
+      </c>
+      <c r="E41" s="4">
+        <v>73</v>
+      </c>
+      <c r="F41" s="4">
+        <v>73</v>
+      </c>
+      <c r="G41" s="4">
+        <v>78</v>
+      </c>
+      <c r="H41" s="4">
+        <v>92</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>164</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
+        <v>84</v>
+      </c>
+      <c r="E42" s="4">
+        <v>71</v>
+      </c>
+      <c r="F42" s="4">
+        <v>70</v>
+      </c>
+      <c r="G42" s="4">
+        <v>75</v>
+      </c>
+      <c r="H42" s="4">
+        <v>89</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>155</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4">
+        <v>80</v>
+      </c>
+      <c r="E43" s="4">
+        <v>67</v>
+      </c>
+      <c r="F43" s="4">
+        <v>67</v>
+      </c>
+      <c r="G43" s="4">
+        <v>71</v>
+      </c>
+      <c r="H43" s="4">
+        <v>84</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C475-D171-4E96-9F68-0D756586F909}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,4 +2269,3682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935E4D55-C81B-470A-9A4D-2B345A11D427}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>154</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9">
+        <v>70</v>
+      </c>
+      <c r="H2" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
+        <v>83</v>
+      </c>
+      <c r="E3" s="6">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6">
+        <v>69</v>
+      </c>
+      <c r="G3" s="6">
+        <v>74</v>
+      </c>
+      <c r="H3" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6">
+        <v>72</v>
+      </c>
+      <c r="H4" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>165</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6">
+        <v>75</v>
+      </c>
+      <c r="H5" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>173</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6">
+        <v>74</v>
+      </c>
+      <c r="G6" s="6">
+        <v>79</v>
+      </c>
+      <c r="H6" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>179</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
+        <v>82</v>
+      </c>
+      <c r="H7" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6">
+        <v>79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6">
+        <v>70</v>
+      </c>
+      <c r="H8" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>160</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6">
+        <v>74</v>
+      </c>
+      <c r="H9" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6">
+        <v>75</v>
+      </c>
+      <c r="H11" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6">
+        <v>74</v>
+      </c>
+      <c r="G12" s="6">
+        <v>79</v>
+      </c>
+      <c r="H12" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6">
+        <v>77</v>
+      </c>
+      <c r="F13" s="6">
+        <v>77</v>
+      </c>
+      <c r="G13" s="6">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670632AB-0503-4D0B-A10B-51E1E2415C6D}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>175</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10">
+        <v>91</v>
+      </c>
+      <c r="F2" s="10">
+        <v>93</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100</v>
+      </c>
+      <c r="H2" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>161</v>
+      </c>
+      <c r="E3" s="4">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>166</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4">
+        <v>84</v>
+      </c>
+      <c r="F4" s="4">
+        <v>86</v>
+      </c>
+      <c r="G4" s="4">
+        <v>94</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>168</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4">
+        <v>85</v>
+      </c>
+      <c r="F5" s="4">
+        <v>87</v>
+      </c>
+      <c r="G5" s="4">
+        <v>95</v>
+      </c>
+      <c r="H5" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4">
+        <v>82</v>
+      </c>
+      <c r="F6" s="4">
+        <v>85</v>
+      </c>
+      <c r="G6" s="4">
+        <v>92</v>
+      </c>
+      <c r="H6" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>93</v>
+      </c>
+      <c r="E7" s="4">
+        <v>88</v>
+      </c>
+      <c r="F7" s="4">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>176</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4">
+        <v>103</v>
+      </c>
+      <c r="H8" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>159</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>160</v>
+      </c>
+      <c r="E9" s="4">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4">
+        <v>86</v>
+      </c>
+      <c r="H9" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>89</v>
+      </c>
+      <c r="E10" s="4">
+        <v>84</v>
+      </c>
+      <c r="F10" s="4">
+        <v>86</v>
+      </c>
+      <c r="G10" s="4">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>167</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4">
+        <v>85</v>
+      </c>
+      <c r="F11" s="4">
+        <v>87</v>
+      </c>
+      <c r="G11" s="4">
+        <v>96</v>
+      </c>
+      <c r="H11" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>87</v>
+      </c>
+      <c r="E12" s="4">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4">
+        <v>85</v>
+      </c>
+      <c r="G12" s="4">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>95</v>
+      </c>
+      <c r="E13" s="4">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4">
+        <v>92</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB74F46F-80C7-41C1-8338-C7D34BC7BB52}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>175</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
+        <v>90</v>
+      </c>
+      <c r="E2" s="10">
+        <v>76</v>
+      </c>
+      <c r="F2" s="10">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10">
+        <v>80</v>
+      </c>
+      <c r="H2" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4">
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>166</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4">
+        <v>71</v>
+      </c>
+      <c r="G4" s="4">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>168</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4">
+        <v>72</v>
+      </c>
+      <c r="G5" s="4">
+        <v>77</v>
+      </c>
+      <c r="H5" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4">
+        <v>74</v>
+      </c>
+      <c r="H6" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>88</v>
+      </c>
+      <c r="E7" s="4">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4">
+        <v>73</v>
+      </c>
+      <c r="G7" s="4">
+        <v>78</v>
+      </c>
+      <c r="H7" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>176</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4">
+        <v>75</v>
+      </c>
+      <c r="G8" s="4">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>159</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>68</v>
+      </c>
+      <c r="G9" s="4">
+        <v>72</v>
+      </c>
+      <c r="H9" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4">
+        <v>72</v>
+      </c>
+      <c r="F10" s="4">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>76</v>
+      </c>
+      <c r="H10" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>167</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4">
+        <v>72</v>
+      </c>
+      <c r="G11" s="4">
+        <v>77</v>
+      </c>
+      <c r="H11" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D90F6-7B4E-4DC9-A3D3-E66DE13718B7}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>178</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10">
+        <v>78</v>
+      </c>
+      <c r="F2" s="10">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10">
+        <v>73</v>
+      </c>
+      <c r="H2" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>177</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>84</v>
+      </c>
+      <c r="E4" s="4">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4">
+        <v>72</v>
+      </c>
+      <c r="H4" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>164</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>77</v>
+      </c>
+      <c r="E5" s="4">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4">
+        <v>67</v>
+      </c>
+      <c r="H5" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>75</v>
+      </c>
+      <c r="E6" s="4">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4">
+        <v>66</v>
+      </c>
+      <c r="H6" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>179</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4">
+        <v>77</v>
+      </c>
+      <c r="G8" s="4">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>176</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>166</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4">
+        <v>66</v>
+      </c>
+      <c r="H12" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>181</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4">
+        <v>73</v>
+      </c>
+      <c r="H13" s="4">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A6BFE-DFB0-48A9-BD3B-6C36733127D3}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>178</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
+        <v>92</v>
+      </c>
+      <c r="E2" s="10">
+        <v>77</v>
+      </c>
+      <c r="F2" s="10">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10">
+        <v>81</v>
+      </c>
+      <c r="H2" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>177</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>91</v>
+      </c>
+      <c r="E4" s="4">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>164</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>179</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>92</v>
+      </c>
+      <c r="E8" s="4">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4">
+        <v>77</v>
+      </c>
+      <c r="G8" s="4">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>176</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>166</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4">
+        <v>71</v>
+      </c>
+      <c r="F11" s="4">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4">
+        <v>75</v>
+      </c>
+      <c r="H11" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4">
+        <v>71</v>
+      </c>
+      <c r="H12" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>181</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>94</v>
+      </c>
+      <c r="E13" s="4">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4">
+        <v>83</v>
+      </c>
+      <c r="H13" s="4">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCBA9A9-2EF5-48FB-A820-B70484EE99E9}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6">
+        <v>82</v>
+      </c>
+      <c r="E2" s="6">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6">
+        <v>83</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6">
+        <v>79</v>
+      </c>
+      <c r="G3" s="6">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6">
+        <v>87</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6">
+        <v>79</v>
+      </c>
+      <c r="H4" s="6">
+        <v>85</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>165</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6">
+        <v>81</v>
+      </c>
+      <c r="F5" s="6">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6">
+        <v>84</v>
+      </c>
+      <c r="H5" s="6">
+        <v>89</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>173</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6">
+        <v>85</v>
+      </c>
+      <c r="G6" s="6">
+        <v>89</v>
+      </c>
+      <c r="H6" s="6">
+        <v>94</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>179</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>89</v>
+      </c>
+      <c r="F7" s="6">
+        <v>88</v>
+      </c>
+      <c r="G7" s="6">
+        <v>92</v>
+      </c>
+      <c r="H7" s="6">
+        <v>97</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6">
+        <v>80</v>
+      </c>
+      <c r="F8" s="6">
+        <v>80</v>
+      </c>
+      <c r="G8" s="6">
+        <v>79</v>
+      </c>
+      <c r="H8" s="6">
+        <v>83</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>160</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6">
+        <v>82</v>
+      </c>
+      <c r="F9" s="6">
+        <v>88</v>
+      </c>
+      <c r="G9" s="6">
+        <v>84</v>
+      </c>
+      <c r="H9" s="6">
+        <v>87</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6">
+        <v>84</v>
+      </c>
+      <c r="E10" s="6">
+        <v>78</v>
+      </c>
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>79</v>
+      </c>
+      <c r="H10" s="6">
+        <v>85</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6">
+        <v>82</v>
+      </c>
+      <c r="F11" s="6">
+        <v>80</v>
+      </c>
+      <c r="G11" s="6">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6">
+        <v>89</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6">
+        <v>88</v>
+      </c>
+      <c r="F12" s="6">
+        <v>88</v>
+      </c>
+      <c r="G12" s="6">
+        <v>89</v>
+      </c>
+      <c r="H12" s="6">
+        <v>94</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6">
+        <v>89</v>
+      </c>
+      <c r="F13" s="6">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6">
+        <v>92</v>
+      </c>
+      <c r="H13" s="6">
+        <v>97</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>175</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10">
+        <v>91</v>
+      </c>
+      <c r="F14" s="10">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>95</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>158</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>161</v>
+      </c>
+      <c r="E15" s="4">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4">
+        <v>87</v>
+      </c>
+      <c r="H15" s="4">
+        <v>86</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4">
+        <v>84</v>
+      </c>
+      <c r="F16" s="4">
+        <v>86</v>
+      </c>
+      <c r="G16" s="4">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4">
+        <v>90</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>168</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4">
+        <v>85</v>
+      </c>
+      <c r="F17" s="4">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4">
+        <v>91</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>163</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4">
+        <v>88</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>170</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>93</v>
+      </c>
+      <c r="E19" s="4">
+        <v>88</v>
+      </c>
+      <c r="F19" s="4">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4">
+        <v>98</v>
+      </c>
+      <c r="H19" s="4">
+        <v>92</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4">
+        <v>92</v>
+      </c>
+      <c r="G20" s="4">
+        <v>103</v>
+      </c>
+      <c r="H20" s="4">
+        <v>96</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>159</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>160</v>
+      </c>
+      <c r="E21" s="4">
+        <v>77</v>
+      </c>
+      <c r="F21" s="4">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4">
+        <v>86</v>
+      </c>
+      <c r="H21" s="4">
+        <v>88</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>166</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4">
+        <v>86</v>
+      </c>
+      <c r="G22" s="4">
+        <v>94</v>
+      </c>
+      <c r="H22" s="4">
+        <v>90</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>167</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>91</v>
+      </c>
+      <c r="E23" s="4">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4">
+        <v>87</v>
+      </c>
+      <c r="G23" s="4">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4">
+        <v>91</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4">
+        <v>92</v>
+      </c>
+      <c r="H24" s="4">
+        <v>88</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>171</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>95</v>
+      </c>
+      <c r="E25" s="4">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4">
+        <v>90</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>178</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>85</v>
+      </c>
+      <c r="E26" s="10">
+        <v>78</v>
+      </c>
+      <c r="F26" s="10">
+        <v>77</v>
+      </c>
+      <c r="G26" s="10">
+        <v>73</v>
+      </c>
+      <c r="H26" s="10">
+        <v>96</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4">
+        <v>66</v>
+      </c>
+      <c r="F27" s="4">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4">
+        <v>64</v>
+      </c>
+      <c r="H27" s="4">
+        <v>82</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>84</v>
+      </c>
+      <c r="E28" s="4">
+        <v>77</v>
+      </c>
+      <c r="F28" s="4">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4">
+        <v>72</v>
+      </c>
+      <c r="H28" s="4">
+        <v>96</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>164</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4">
+        <v>67</v>
+      </c>
+      <c r="H29" s="4">
+        <v>89</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4">
+        <v>68</v>
+      </c>
+      <c r="F30" s="4">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4">
+        <v>66</v>
+      </c>
+      <c r="H30" s="4">
+        <v>84</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>85</v>
+      </c>
+      <c r="E31" s="4">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4">
+        <v>78</v>
+      </c>
+      <c r="G31" s="4">
+        <v>73</v>
+      </c>
+      <c r="H31" s="4">
+        <v>99</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>179</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4">
+        <v>79</v>
+      </c>
+      <c r="F32" s="4">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4">
+        <v>73</v>
+      </c>
+      <c r="H32" s="4">
+        <v>95</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>152</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>72</v>
+      </c>
+      <c r="E33" s="4">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4">
+        <v>64</v>
+      </c>
+      <c r="H33" s="4">
+        <v>70</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>176</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>83</v>
+      </c>
+      <c r="E34" s="4">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4">
+        <v>76</v>
+      </c>
+      <c r="G34" s="4">
+        <v>72</v>
+      </c>
+      <c r="H34" s="4">
+        <v>75</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>166</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>76</v>
+      </c>
+      <c r="E35" s="4">
+        <v>73</v>
+      </c>
+      <c r="F35" s="4">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4">
+        <v>67</v>
+      </c>
+      <c r="H35" s="4">
+        <v>75</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4">
+        <v>68</v>
+      </c>
+      <c r="F36" s="4">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4">
+        <v>66</v>
+      </c>
+      <c r="H36" s="4">
+        <v>84</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>181</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>83</v>
+      </c>
+      <c r="E37" s="4">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4">
+        <v>78</v>
+      </c>
+      <c r="G37" s="4">
+        <v>73</v>
+      </c>
+      <c r="H37" s="4">
+        <v>88</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4028B6-5492-47BD-8738-9D7759AC8604}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>154</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9">
+        <v>70</v>
+      </c>
+      <c r="H2" s="16">
+        <v>83</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
+        <v>83</v>
+      </c>
+      <c r="E3" s="6">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6">
+        <v>69</v>
+      </c>
+      <c r="G3" s="6">
+        <v>74</v>
+      </c>
+      <c r="H3" s="17">
+        <v>87</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6">
+        <v>72</v>
+      </c>
+      <c r="H4" s="17">
+        <v>85</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>165</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6">
+        <v>75</v>
+      </c>
+      <c r="H5" s="17">
+        <v>89</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>173</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6">
+        <v>74</v>
+      </c>
+      <c r="G6" s="6">
+        <v>79</v>
+      </c>
+      <c r="H6" s="17">
+        <v>94</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>179</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
+        <v>82</v>
+      </c>
+      <c r="H7" s="17">
+        <v>97</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6">
+        <v>79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6">
+        <v>70</v>
+      </c>
+      <c r="H8" s="17">
+        <v>83</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>160</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6">
+        <v>74</v>
+      </c>
+      <c r="H9" s="17">
+        <v>87</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6">
+        <v>72</v>
+      </c>
+      <c r="H10" s="17">
+        <v>85</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6">
+        <v>75</v>
+      </c>
+      <c r="H11" s="17">
+        <v>89</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6">
+        <v>74</v>
+      </c>
+      <c r="G12" s="6">
+        <v>79</v>
+      </c>
+      <c r="H12" s="17">
+        <v>94</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6">
+        <v>77</v>
+      </c>
+      <c r="F13" s="6">
+        <v>77</v>
+      </c>
+      <c r="G13" s="6">
+        <v>82</v>
+      </c>
+      <c r="H13" s="17">
+        <v>97</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>175</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>90</v>
+      </c>
+      <c r="E14" s="10">
+        <v>76</v>
+      </c>
+      <c r="F14" s="10">
+        <v>75</v>
+      </c>
+      <c r="G14" s="10">
+        <v>80</v>
+      </c>
+      <c r="H14" s="18">
+        <v>95</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>158</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4">
+        <v>68</v>
+      </c>
+      <c r="G15" s="4">
+        <v>72</v>
+      </c>
+      <c r="H15" s="19">
+        <v>86</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4">
+        <v>72</v>
+      </c>
+      <c r="F16" s="4">
+        <v>71</v>
+      </c>
+      <c r="G16" s="4">
+        <v>76</v>
+      </c>
+      <c r="H16" s="19">
+        <v>90</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>168</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4">
+        <v>73</v>
+      </c>
+      <c r="F17" s="4">
+        <v>72</v>
+      </c>
+      <c r="G17" s="4">
+        <v>77</v>
+      </c>
+      <c r="H17" s="19">
+        <v>91</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>163</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>83</v>
+      </c>
+      <c r="E18" s="4">
+        <v>70</v>
+      </c>
+      <c r="F18" s="4">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4">
+        <v>74</v>
+      </c>
+      <c r="H18" s="19">
+        <v>88</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>170</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4">
+        <v>73</v>
+      </c>
+      <c r="F19" s="4">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4">
+        <v>78</v>
+      </c>
+      <c r="H19" s="19">
+        <v>92</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4">
+        <v>75</v>
+      </c>
+      <c r="G20" s="4">
+        <v>80</v>
+      </c>
+      <c r="H20" s="19">
+        <v>95</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>159</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4">
+        <v>68</v>
+      </c>
+      <c r="F21" s="4">
+        <v>68</v>
+      </c>
+      <c r="G21" s="4">
+        <v>72</v>
+      </c>
+      <c r="H21" s="19">
+        <v>86</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>166</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4">
+        <v>72</v>
+      </c>
+      <c r="F22" s="4">
+        <v>71</v>
+      </c>
+      <c r="G22" s="4">
+        <v>76</v>
+      </c>
+      <c r="H22" s="19">
+        <v>90</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>167</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4">
+        <v>72</v>
+      </c>
+      <c r="G23" s="4">
+        <v>77</v>
+      </c>
+      <c r="H23" s="19">
+        <v>91</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4">
+        <v>70</v>
+      </c>
+      <c r="F24" s="4">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
+        <v>74</v>
+      </c>
+      <c r="H24" s="19">
+        <v>88</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>171</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>88</v>
+      </c>
+      <c r="E25" s="4">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4">
+        <v>73</v>
+      </c>
+      <c r="G25" s="4">
+        <v>78</v>
+      </c>
+      <c r="H25" s="19">
+        <v>92</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>178</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>92</v>
+      </c>
+      <c r="E26" s="10">
+        <v>77</v>
+      </c>
+      <c r="F26" s="10">
+        <v>77</v>
+      </c>
+      <c r="G26" s="10">
+        <v>81</v>
+      </c>
+      <c r="H26" s="18">
+        <v>96</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>78</v>
+      </c>
+      <c r="E27" s="4">
+        <v>65</v>
+      </c>
+      <c r="F27" s="4">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4">
+        <v>69</v>
+      </c>
+      <c r="H27" s="19">
+        <v>82</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>91</v>
+      </c>
+      <c r="E28" s="4">
+        <v>76</v>
+      </c>
+      <c r="F28" s="4">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4">
+        <v>81</v>
+      </c>
+      <c r="H28" s="19">
+        <v>96</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>164</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>84</v>
+      </c>
+      <c r="E29" s="4">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4">
+        <v>75</v>
+      </c>
+      <c r="H29" s="19">
+        <v>89</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4">
+        <v>71</v>
+      </c>
+      <c r="H30" s="19">
+        <v>84</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>94</v>
+      </c>
+      <c r="E31" s="4">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4">
+        <v>78</v>
+      </c>
+      <c r="G31" s="4">
+        <v>83</v>
+      </c>
+      <c r="H31" s="19">
+        <v>99</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>179</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4">
+        <v>77</v>
+      </c>
+      <c r="F32" s="4">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4">
+        <v>81</v>
+      </c>
+      <c r="H32" s="19">
+        <v>96</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>152</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>78</v>
+      </c>
+      <c r="E33" s="4">
+        <v>65</v>
+      </c>
+      <c r="F33" s="4">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4">
+        <v>69</v>
+      </c>
+      <c r="H33" s="19">
+        <v>82</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>176</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4">
+        <v>76</v>
+      </c>
+      <c r="F34" s="4">
+        <v>76</v>
+      </c>
+      <c r="G34" s="4">
+        <v>81</v>
+      </c>
+      <c r="H34" s="19">
+        <v>96</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>166</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4">
+        <v>71</v>
+      </c>
+      <c r="F35" s="4">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4">
+        <v>75</v>
+      </c>
+      <c r="H35" s="19">
+        <v>89</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4">
+        <v>67</v>
+      </c>
+      <c r="F36" s="4">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4">
+        <v>71</v>
+      </c>
+      <c r="H36" s="19">
+        <v>84</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>181</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>94</v>
+      </c>
+      <c r="E37" s="4">
+        <v>79</v>
+      </c>
+      <c r="F37" s="4">
+        <v>78</v>
+      </c>
+      <c r="G37" s="4">
+        <v>83</v>
+      </c>
+      <c r="H37" s="19">
+        <v>99</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datasets/figure.xlsx
+++ b/datasets/figure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47B592E4-E322-4ACE-88A4-44B97E4E9F47}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EF4E023-ED79-4891-8493-FEB57145FD49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hourglass" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>waist</t>
   </si>
   <si>
-    <t>shoulder</t>
-  </si>
-  <si>
     <t>middle_butt</t>
   </si>
   <si>
@@ -69,23 +66,26 @@
   <si>
     <t>hourglass</t>
   </si>
+  <si>
+    <t>upper_butt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,7 +104,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,8 +112,15 @@
       <b/>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,11 +592,11 @@
       <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -607,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -637,7 +644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -661,7 +668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -685,7 +692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -709,7 +716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -733,7 +740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -758,6 +765,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -767,15 +775,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9F04A-CC9F-4887-8032-B821E64B479E}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -793,16 +801,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -826,10 +834,10 @@
         <v>83</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -853,10 +861,10 @@
         <v>87</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -880,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -907,10 +915,10 @@
         <v>89</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -934,10 +942,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -961,10 +969,10 @@
         <v>97</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -988,10 +996,10 @@
         <v>83</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1015,10 +1023,10 @@
         <v>87</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1042,10 +1050,10 @@
         <v>85</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1069,10 +1077,10 @@
         <v>89</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1096,10 +1104,10 @@
         <v>94</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1123,10 +1131,10 @@
         <v>97</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1150,10 +1158,10 @@
         <v>95</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1177,10 +1185,10 @@
         <v>86</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1204,10 +1212,10 @@
         <v>90</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1231,10 +1239,10 @@
         <v>91</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1258,10 +1266,10 @@
         <v>88</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1285,10 +1293,10 @@
         <v>92</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1312,10 +1320,10 @@
         <v>96</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1339,10 +1347,10 @@
         <v>88</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1366,10 +1374,10 @@
         <v>90</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1393,10 +1401,10 @@
         <v>91</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1420,10 +1428,10 @@
         <v>88</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1447,10 +1455,10 @@
         <v>90</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1474,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1501,10 +1509,10 @@
         <v>82</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1528,10 +1536,10 @@
         <v>96</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1555,10 +1563,10 @@
         <v>89</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1582,10 +1590,10 @@
         <v>84</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1609,10 +1617,10 @@
         <v>99</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1636,10 +1644,10 @@
         <v>95</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1663,10 +1671,10 @@
         <v>70</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1690,10 +1698,10 @@
         <v>75</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1717,10 +1725,10 @@
         <v>75</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1744,10 +1752,10 @@
         <v>84</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1771,10 +1779,10 @@
         <v>88</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1798,10 +1806,10 @@
         <v>88</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1825,10 +1833,10 @@
         <v>86</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1852,10 +1860,10 @@
         <v>89</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1879,10 +1887,10 @@
         <v>92</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1906,10 +1914,10 @@
         <v>89</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1933,10 +1941,11 @@
         <v>84</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1949,11 +1958,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1971,13 +1980,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2266,6 +2275,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2279,11 +2289,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2301,13 +2311,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2331,7 +2341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2355,7 +2365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2451,7 +2461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2596,6 +2606,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2609,11 +2620,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2631,13 +2642,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2685,7 +2696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2781,7 +2792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2926,6 +2937,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2938,11 +2950,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2960,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3062,7 +3074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3110,7 +3122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3206,7 +3218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3230,7 +3242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3255,6 +3267,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3267,11 +3280,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3289,13 +3302,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3343,7 +3356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3415,7 +3428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3463,7 +3476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3487,7 +3500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3535,7 +3548,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3584,6 +3597,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3596,11 +3610,11 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3618,13 +3632,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3648,7 +3662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3696,7 +3710,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3768,7 +3782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3792,7 +3806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3816,7 +3830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3864,7 +3878,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3888,7 +3902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3913,6 +3927,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3921,15 +3936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCBA9A9-2EF5-48FB-A820-B70484EE99E9}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:I37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3947,16 +3962,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3980,10 +3995,10 @@
         <v>83</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4007,10 +4022,10 @@
         <v>87</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4034,10 +4049,10 @@
         <v>85</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4061,10 +4076,10 @@
         <v>89</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4088,10 +4103,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4115,10 +4130,10 @@
         <v>97</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4142,10 +4157,10 @@
         <v>83</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4169,10 +4184,10 @@
         <v>87</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4196,10 +4211,10 @@
         <v>85</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4223,10 +4238,10 @@
         <v>89</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4250,10 +4265,10 @@
         <v>94</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4277,10 +4292,10 @@
         <v>97</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4304,10 +4319,10 @@
         <v>95</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4331,10 +4346,10 @@
         <v>86</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4358,10 +4373,10 @@
         <v>90</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4385,10 +4400,10 @@
         <v>91</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4412,10 +4427,10 @@
         <v>88</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4439,10 +4454,10 @@
         <v>92</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4466,10 +4481,10 @@
         <v>96</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4493,10 +4508,10 @@
         <v>88</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4520,10 +4535,10 @@
         <v>90</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4547,10 +4562,10 @@
         <v>91</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4574,10 +4589,10 @@
         <v>88</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4601,10 +4616,10 @@
         <v>90</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4628,10 +4643,10 @@
         <v>96</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4655,10 +4670,10 @@
         <v>82</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4682,10 +4697,10 @@
         <v>96</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4709,10 +4724,10 @@
         <v>89</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4736,10 +4751,10 @@
         <v>84</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4763,10 +4778,10 @@
         <v>99</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4790,10 +4805,10 @@
         <v>95</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4817,10 +4832,10 @@
         <v>70</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4844,10 +4859,10 @@
         <v>75</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4871,10 +4886,10 @@
         <v>75</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4898,10 +4913,10 @@
         <v>84</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4925,10 +4940,11 @@
         <v>88</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4937,15 +4953,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4028B6-5492-47BD-8738-9D7759AC8604}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4963,16 +4979,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4996,10 +5012,10 @@
         <v>83</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -5023,10 +5039,10 @@
         <v>87</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5050,10 +5066,10 @@
         <v>85</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5077,10 +5093,10 @@
         <v>89</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -5104,10 +5120,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -5131,10 +5147,10 @@
         <v>97</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5158,10 +5174,10 @@
         <v>83</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -5185,10 +5201,10 @@
         <v>87</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -5212,10 +5228,10 @@
         <v>85</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -5239,10 +5255,10 @@
         <v>89</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -5266,10 +5282,10 @@
         <v>94</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -5293,10 +5309,10 @@
         <v>97</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -5320,10 +5336,10 @@
         <v>95</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5347,10 +5363,10 @@
         <v>86</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -5374,10 +5390,10 @@
         <v>90</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5401,10 +5417,10 @@
         <v>91</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -5428,10 +5444,10 @@
         <v>88</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5455,10 +5471,10 @@
         <v>92</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -5482,10 +5498,10 @@
         <v>95</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -5509,10 +5525,10 @@
         <v>86</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5536,10 +5552,10 @@
         <v>90</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -5563,10 +5579,10 @@
         <v>91</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -5590,10 +5606,10 @@
         <v>88</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -5617,10 +5633,10 @@
         <v>92</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -5644,10 +5660,10 @@
         <v>96</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5671,10 +5687,10 @@
         <v>82</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -5698,10 +5714,10 @@
         <v>96</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -5725,10 +5741,10 @@
         <v>89</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -5752,10 +5768,10 @@
         <v>84</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -5779,10 +5795,10 @@
         <v>99</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -5806,10 +5822,10 @@
         <v>96</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -5833,10 +5849,10 @@
         <v>82</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -5860,10 +5876,10 @@
         <v>96</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -5887,10 +5903,10 @@
         <v>89</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -5914,10 +5930,10 @@
         <v>84</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -5941,10 +5957,11 @@
         <v>99</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/figure.xlsx
+++ b/datasets/figure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EF4E023-ED79-4891-8493-FEB57145FD49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6B9927C-EEB9-46BE-B0D0-B12D32CF59C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4954,7 +4954,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
